--- a/Boriladigan maktablar (1).xlsx
+++ b/Boriladigan maktablar (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E464BB6C-5EB8-4891-97AD-A3C67E6B872F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEEF9A25-9494-448F-8C30-4E4C096A9A44}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -19,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">New!$A$1:$J$291</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">User!$A$1:$C$31</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">New!$A$1:$M$297</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">New!$A$1:$M$291</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="574" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="106">
   <si>
     <t>ID</t>
   </si>
@@ -69,178 +69,16 @@
     <t>Бектемир</t>
   </si>
   <si>
-    <t>293-Мактаб</t>
-  </si>
-  <si>
-    <t>289-ИДУМ</t>
-  </si>
-  <si>
-    <t>291-ИДУМ</t>
-  </si>
-  <si>
-    <t>348-Мактаб</t>
-  </si>
-  <si>
-    <t>290-Мактаб</t>
-  </si>
-  <si>
-    <t>345-Мактаб</t>
-  </si>
-  <si>
-    <t>346-Мактаб</t>
-  </si>
-  <si>
-    <t>347-Мактаб</t>
-  </si>
-  <si>
-    <t>337-Мактаб</t>
-  </si>
-  <si>
     <t>Мирзо Улуғбек</t>
   </si>
   <si>
     <t>Миробод</t>
   </si>
   <si>
-    <t>60-сонли ИДУМ</t>
-  </si>
-  <si>
-    <t>218-сонли ИДУМ</t>
-  </si>
-  <si>
-    <t>31-мактаб</t>
-  </si>
-  <si>
-    <t>94-мактаб</t>
-  </si>
-  <si>
-    <t>125-мактаб</t>
-  </si>
-  <si>
-    <t>83-мактаб</t>
-  </si>
-  <si>
-    <t>328-мактаб</t>
-  </si>
-  <si>
-    <t>110-сонли ИДУМ</t>
-  </si>
-  <si>
-    <t>213-мактаб</t>
-  </si>
-  <si>
-    <t>214-мактаб</t>
-  </si>
-  <si>
-    <t>175-мактаб</t>
-  </si>
-  <si>
-    <t>147-мактаб</t>
-  </si>
-  <si>
-    <t>154-мактаб</t>
-  </si>
-  <si>
-    <t>158-мактаб</t>
-  </si>
-  <si>
-    <t>294-сонли ИДУМ</t>
-  </si>
-  <si>
-    <t>65-мактаб</t>
-  </si>
-  <si>
-    <t>56-сонли ИДУМ</t>
-  </si>
-  <si>
-    <t>57-ёрдамчи мактаб</t>
-  </si>
-  <si>
     <t>Олмазор</t>
   </si>
   <si>
-    <t>119 (159А)</t>
-  </si>
-  <si>
-    <t>106-м/и</t>
-  </si>
-  <si>
-    <t>100-м/и</t>
-  </si>
-  <si>
-    <t>36-м/м</t>
-  </si>
-  <si>
-    <t>102-м/и</t>
-  </si>
-  <si>
     <t>Сергели</t>
-  </si>
-  <si>
-    <t>55-мактаб</t>
-  </si>
-  <si>
-    <t>301-мактаб</t>
-  </si>
-  <si>
-    <t>104-мактаб</t>
-  </si>
-  <si>
-    <t>305-мактаб</t>
-  </si>
-  <si>
-    <t>6-мактаб</t>
-  </si>
-  <si>
-    <t>284-мактаб</t>
-  </si>
-  <si>
-    <t>268-мактаб</t>
-  </si>
-  <si>
-    <t>317-мактаб</t>
-  </si>
-  <si>
-    <t>322-мактаб</t>
-  </si>
-  <si>
-    <t>277-мактаб</t>
-  </si>
-  <si>
-    <t>266-мактаб</t>
-  </si>
-  <si>
-    <t>267-мактаб</t>
-  </si>
-  <si>
-    <t>47-мактаб</t>
-  </si>
-  <si>
-    <t>264-мактаб</t>
-  </si>
-  <si>
-    <t>351-мактаб</t>
-  </si>
-  <si>
-    <t>269-мактаб</t>
-  </si>
-  <si>
-    <t>350-мактаб</t>
-  </si>
-  <si>
-    <t>237-мактаб</t>
-  </si>
-  <si>
-    <t>76-мактаб</t>
-  </si>
-  <si>
-    <t>353-мактаб</t>
-  </si>
-  <si>
-    <t>352-мактаб</t>
-  </si>
-  <si>
-    <t>349-мактаб</t>
   </si>
   <si>
     <t>Учтепа</t>
@@ -261,304 +99,19 @@
     <t xml:space="preserve">Чилонзор </t>
   </si>
   <si>
-    <t xml:space="preserve">217-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">164-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">270-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">162-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">79-мактаб </t>
-  </si>
-  <si>
-    <t>195-ИДУМ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">188-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">280-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">103-ИДУМ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">182-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">126-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">163-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">90-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">168-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">200-ИДУМ </t>
-  </si>
-  <si>
-    <t xml:space="preserve">173-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">202-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">281-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">201-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">128-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">114-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">179-мактаб </t>
-  </si>
-  <si>
-    <t>181-мактаб</t>
-  </si>
-  <si>
-    <t xml:space="preserve">183-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">131-ИДУМ </t>
-  </si>
-  <si>
-    <t>4-интернат</t>
-  </si>
-  <si>
-    <t xml:space="preserve">232-мактаб </t>
-  </si>
-  <si>
-    <t xml:space="preserve">138-мактаб </t>
-  </si>
-  <si>
-    <t>66-СКММИ</t>
-  </si>
-  <si>
     <t>Шайхонтохур</t>
-  </si>
-  <si>
-    <t>37-махсус мактаб</t>
   </si>
   <si>
     <t>Юнусобод</t>
   </si>
   <si>
-    <t>220-maktab</t>
-  </si>
-  <si>
-    <t>97-maktab</t>
-  </si>
-  <si>
-    <t>51-maktab</t>
-  </si>
-  <si>
-    <t>122-maktab</t>
-  </si>
-  <si>
-    <t>273-maktab</t>
-  </si>
-  <si>
-    <t>250-maktab</t>
-  </si>
-  <si>
-    <t>235-maktab</t>
-  </si>
-  <si>
-    <t>259-maktab</t>
-  </si>
-  <si>
-    <t>327-maktab</t>
-  </si>
-  <si>
-    <t>313-maktab</t>
-  </si>
-  <si>
-    <t>258-maktab</t>
-  </si>
-  <si>
-    <t>274-maktab</t>
-  </si>
-  <si>
-    <t>265-maktab</t>
-  </si>
-  <si>
-    <t>58-maktab</t>
-  </si>
-  <si>
-    <t>98-maktab</t>
-  </si>
-  <si>
-    <t>288-maktab</t>
-  </si>
-  <si>
-    <t>70-maktab</t>
-  </si>
-  <si>
-    <t>21-maktab</t>
-  </si>
-  <si>
-    <t>17-maktab</t>
-  </si>
-  <si>
-    <t>96-maktab</t>
-  </si>
-  <si>
-    <t>271-maktab</t>
-  </si>
-  <si>
-    <t>105-maktab</t>
-  </si>
-  <si>
-    <t>247-maktab</t>
-  </si>
-  <si>
-    <t>63-maktab</t>
-  </si>
-  <si>
-    <t>150-maktab</t>
-  </si>
-  <si>
-    <t>5-maktab</t>
-  </si>
-  <si>
-    <t>80-maktab</t>
-  </si>
-  <si>
-    <t>12-maktab</t>
-  </si>
-  <si>
-    <t>53-maktab</t>
-  </si>
-  <si>
-    <t>117-maktab</t>
-  </si>
-  <si>
-    <t>9-maktab</t>
-  </si>
-  <si>
-    <t>72-maktab</t>
-  </si>
-  <si>
-    <t>88-maktab</t>
-  </si>
-  <si>
     <t>Яккасарой</t>
-  </si>
-  <si>
-    <t>91 мактаб</t>
-  </si>
-  <si>
-    <t>172 мактаб</t>
-  </si>
-  <si>
-    <t>118 мактаб</t>
-  </si>
-  <si>
-    <t>160 мактаб</t>
-  </si>
-  <si>
-    <t>127 мактаб</t>
-  </si>
-  <si>
-    <t>144 мактаб</t>
-  </si>
-  <si>
-    <t>26 мактаб</t>
-  </si>
-  <si>
-    <t>100 мактаб</t>
-  </si>
-  <si>
-    <t>89 мактаб</t>
-  </si>
-  <si>
-    <t>48 мактаб</t>
-  </si>
-  <si>
-    <t>135 мактаб</t>
-  </si>
-  <si>
-    <t>73 мактаб</t>
-  </si>
-  <si>
-    <t>319 мактаб</t>
-  </si>
-  <si>
-    <t>25 мактаб</t>
-  </si>
-  <si>
-    <t>321 мактаб</t>
   </si>
   <si>
     <t>Янгиҳаёт</t>
   </si>
   <si>
-    <t>8-maktab</t>
-  </si>
-  <si>
-    <t>3-maktab</t>
-  </si>
-  <si>
-    <t>32-maktab</t>
-  </si>
-  <si>
-    <t>285-maktab</t>
-  </si>
-  <si>
-    <t>292-maktab</t>
-  </si>
-  <si>
-    <t>336-maktab</t>
-  </si>
-  <si>
-    <t>2-maktab</t>
-  </si>
-  <si>
-    <t>303-maktab</t>
-  </si>
-  <si>
-    <t>335-maktab</t>
-  </si>
-  <si>
-    <t>304-maktab</t>
-  </si>
-  <si>
-    <t>333-maktab</t>
-  </si>
-  <si>
-    <t>332-maktab</t>
-  </si>
-  <si>
-    <t>331-maktab</t>
-  </si>
-  <si>
-    <t>329-maktab</t>
-  </si>
-  <si>
-    <t>334-maktab</t>
-  </si>
-  <si>
-    <t>330-maktab</t>
-  </si>
-  <si>
     <t>Яшнобод</t>
-  </si>
-  <si>
-    <t>`</t>
   </si>
   <si>
     <t>Group Id</t>
@@ -778,6 +331,30 @@
   </si>
   <si>
     <t>Texnik 2</t>
+  </si>
+  <si>
+    <t>57-махсус мактаб</t>
+  </si>
+  <si>
+    <t>102-интернат</t>
+  </si>
+  <si>
+    <t>100-интернат</t>
+  </si>
+  <si>
+    <t>106-интернат</t>
+  </si>
+  <si>
+    <t>326-ИДУМ</t>
+  </si>
+  <si>
+    <t>4-инт</t>
+  </si>
+  <si>
+    <t>36-махсус</t>
+  </si>
+  <si>
+    <t>37-махсус ёрд.мактаб</t>
   </si>
 </sst>
 </file>
@@ -1182,12 +759,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91DAA8B2-C14F-45BB-9BF0-E4B29E74C5DE}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:L297"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E194" sqref="E194:F194"/>
+      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="W58" sqref="W58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1207,7 +783,7 @@
     <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="3" customFormat="1" ht="75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" s="3" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1236,24 +812,24 @@
         <v>8</v>
       </c>
       <c r="J1" s="7" t="s">
-        <v>174</v>
+        <v>25</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>175</v>
+        <v>26</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="36" hidden="1" x14ac:dyDescent="0.2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="36" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>9</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>18</v>
+      <c r="C2" s="2">
+        <v>337</v>
       </c>
       <c r="D2" s="2">
         <v>18</v>
@@ -1279,21 +855,21 @@
         <v>1</v>
       </c>
       <c r="K2" s="9" t="s">
-        <v>177</v>
+        <v>28</v>
       </c>
       <c r="L2" s="8" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="60" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>7</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>16</v>
+      <c r="C3" s="2">
+        <v>346</v>
       </c>
       <c r="D3" s="2">
         <v>19</v>
@@ -1319,18 +895,18 @@
         <v>1</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>182</v>
+        <v>33</v>
       </c>
       <c r="L3" s="8" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>22</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2">
         <v>208</v>
@@ -1359,21 +935,21 @@
         <v>1</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>180</v>
+        <v>31</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>1</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
+      <c r="C5" s="2">
+        <v>293</v>
       </c>
       <c r="D5" s="2">
         <v>26</v>
@@ -1399,18 +975,18 @@
         <v>2</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>183</v>
+        <v>34</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>18</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
         <v>112</v>
@@ -1439,21 +1015,21 @@
         <v>2</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>185</v>
+        <v>36</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>15</v>
+      <c r="C7" s="2">
+        <v>345</v>
       </c>
       <c r="D7" s="2">
         <v>13</v>
@@ -1479,21 +1055,21 @@
         <v>3</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>187</v>
+        <v>38</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>13</v>
+      <c r="C8" s="2">
+        <v>348</v>
       </c>
       <c r="D8" s="2">
         <v>16</v>
@@ -1519,18 +1095,18 @@
         <v>3</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C9" s="2">
         <v>35</v>
@@ -1559,18 +1135,18 @@
         <v>3</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>2</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>11</v>
+      <c r="C10" s="2">
+        <v>289</v>
       </c>
       <c r="D10" s="2">
         <v>35</v>
@@ -1596,12 +1172,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C11" s="2">
         <v>210</v>
@@ -1630,15 +1206,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>5</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>14</v>
+      <c r="C12" s="2">
+        <v>290</v>
       </c>
       <c r="D12" s="2">
         <v>32</v>
@@ -1664,12 +1240,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>17</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C13" s="2">
         <v>209</v>
@@ -1698,15 +1274,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>17</v>
+      <c r="C14" s="2">
+        <v>347</v>
       </c>
       <c r="D14" s="2">
         <v>19</v>
@@ -1732,12 +1308,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>281</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C15" s="2">
         <v>215</v>
@@ -1766,12 +1342,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>20</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2">
         <v>142</v>
@@ -1800,12 +1376,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>19</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>121</v>
@@ -1834,12 +1410,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>13</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2">
         <v>54</v>
@@ -1868,12 +1444,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>27</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2">
         <v>222</v>
@@ -1902,12 +1478,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>24</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2">
         <v>256</v>
@@ -1936,15 +1512,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>3</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>12</v>
+      <c r="C21" s="2">
+        <v>291</v>
       </c>
       <c r="D21" s="2">
         <v>49</v>
@@ -1970,12 +1546,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>32</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2">
         <v>50</v>
@@ -2004,12 +1580,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>30</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2">
         <v>207</v>
@@ -2038,12 +1614,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>26</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2">
         <v>221</v>
@@ -2072,12 +1648,12 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>34</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2">
         <v>344</v>
@@ -2106,12 +1682,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>37</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2">
         <v>241</v>
@@ -2140,12 +1716,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>25</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2">
         <v>275</v>
@@ -2174,12 +1750,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>10</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2">
         <v>279</v>
@@ -2208,12 +1784,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2">
         <v>286</v>
@@ -2242,12 +1818,12 @@
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>12</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C30" s="2">
         <v>248</v>
@@ -2276,12 +1852,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>16</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C31" s="2">
         <v>308</v>
@@ -2310,12 +1886,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>33</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C32" s="2">
         <v>148</v>
@@ -2344,12 +1920,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>28</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C33" s="2">
         <v>49</v>
@@ -2378,12 +1954,12 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>14</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C34" s="2">
         <v>225</v>
@@ -2409,12 +1985,12 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>31</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C35" s="2">
         <v>120</v>
@@ -2440,12 +2016,12 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C36" s="2">
         <v>223</v>
@@ -2471,12 +2047,12 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C37" s="2">
         <v>338</v>
@@ -2502,12 +2078,12 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>23</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C38" s="2">
         <v>18</v>
@@ -2533,12 +2109,12 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C39" s="2">
         <v>211</v>
@@ -2564,15 +2140,15 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C40" s="2">
+        <v>60</v>
       </c>
       <c r="D40" s="2">
         <v>35</v>
@@ -2595,15 +2171,15 @@
         <v>45048</v>
       </c>
     </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>55</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="D41" s="2">
         <v>12</v>
@@ -2626,15 +2202,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>54</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="C42" s="2">
+        <v>56</v>
       </c>
       <c r="D42" s="2">
         <v>32</v>
@@ -2657,15 +2233,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>49</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
+      </c>
+      <c r="C43" s="2">
+        <v>147</v>
       </c>
       <c r="D43" s="2">
         <v>19</v>
@@ -2688,15 +2264,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>53</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>36</v>
+        <v>11</v>
+      </c>
+      <c r="C44" s="2">
+        <v>65</v>
       </c>
       <c r="D44" s="2">
         <v>28</v>
@@ -2719,15 +2295,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>47</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C45" s="2">
+        <v>214</v>
       </c>
       <c r="D45" s="2">
         <v>26</v>
@@ -2750,15 +2326,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="46" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>50</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="C46" s="2">
+        <v>154</v>
       </c>
       <c r="D46" s="2">
         <v>30</v>
@@ -2781,15 +2357,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="47" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>43</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>26</v>
+        <v>11</v>
+      </c>
+      <c r="C47" s="2">
+        <v>83</v>
       </c>
       <c r="D47" s="2">
         <v>19</v>
@@ -2812,15 +2388,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="48" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>52</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>35</v>
+        <v>11</v>
+      </c>
+      <c r="C48" s="2">
+        <v>294</v>
       </c>
       <c r="D48" s="2">
         <v>38</v>
@@ -2843,15 +2419,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>51</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>34</v>
+        <v>11</v>
+      </c>
+      <c r="C49" s="2">
+        <v>158</v>
       </c>
       <c r="D49" s="2">
         <v>38</v>
@@ -2874,15 +2450,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>48</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
+      </c>
+      <c r="C50" s="2">
+        <v>175</v>
       </c>
       <c r="D50" s="2">
         <v>35</v>
@@ -2905,15 +2481,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>29</v>
+        <v>11</v>
+      </c>
+      <c r="C51" s="2">
+        <v>213</v>
       </c>
       <c r="D51" s="2">
         <v>30</v>
@@ -2936,15 +2512,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>39</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
+      </c>
+      <c r="C52" s="2">
+        <v>218</v>
       </c>
       <c r="D52" s="2">
         <v>19</v>
@@ -2967,15 +2543,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>44</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>27</v>
+        <v>11</v>
+      </c>
+      <c r="C53" s="2">
+        <v>328</v>
       </c>
       <c r="D53" s="2">
         <v>26</v>
@@ -2998,15 +2574,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>25</v>
+        <v>11</v>
+      </c>
+      <c r="C54" s="2">
+        <v>125</v>
       </c>
       <c r="D54" s="2">
         <v>30</v>
@@ -3029,15 +2605,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>40</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>23</v>
+        <v>11</v>
+      </c>
+      <c r="C55" s="2">
+        <v>31</v>
       </c>
       <c r="D55" s="2">
         <v>27</v>
@@ -3060,15 +2636,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>41</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
+      </c>
+      <c r="C56" s="2">
+        <v>94</v>
       </c>
       <c r="D56" s="2">
         <v>46</v>
@@ -3091,15 +2667,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>28</v>
+        <v>11</v>
+      </c>
+      <c r="C57" s="2">
+        <v>110</v>
       </c>
       <c r="D57" s="2">
         <v>84</v>
@@ -3122,12 +2698,12 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C58" s="2">
         <v>165</v>
@@ -3153,12 +2729,12 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>56</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C59" s="2">
         <v>243</v>
@@ -3184,15 +2760,15 @@
         <v>45049</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>73</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>40</v>
+        <v>12</v>
+      </c>
+      <c r="C60" s="2">
+        <v>119</v>
       </c>
       <c r="D60" s="2">
         <v>25</v>
@@ -3215,12 +2791,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>59</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C61" s="2">
         <v>133</v>
@@ -3246,12 +2822,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>66</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C62" s="2">
         <v>46</v>
@@ -3277,12 +2853,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>68</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C63" s="2">
         <v>219</v>
@@ -3308,12 +2884,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>74</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C64" s="2">
         <v>261</v>
@@ -3339,12 +2915,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>76</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C65" s="2">
         <v>196</v>
@@ -3370,12 +2946,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>62</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C66" s="2">
         <v>11</v>
@@ -3401,12 +2977,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>72</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C67" s="2">
         <v>185</v>
@@ -3432,12 +3008,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>69</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C68" s="2">
         <v>146</v>
@@ -3463,12 +3039,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>67</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C69" s="2">
         <v>224</v>
@@ -3494,12 +3070,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>60</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C70" s="2">
         <v>233</v>
@@ -3525,12 +3101,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>75</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C71" s="2">
         <v>29</v>
@@ -3556,12 +3132,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>63</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C72" s="2">
         <v>315</v>
@@ -3587,12 +3163,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>70</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C73" s="2">
         <v>134</v>
@@ -3618,12 +3194,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>58</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C74" s="2">
         <v>278</v>
@@ -3649,15 +3225,15 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>64</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="C75" s="2">
-        <v>326</v>
+        <v>12</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D75" s="2">
         <v>30</v>
@@ -3680,12 +3256,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>71</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C76" s="2">
         <v>234</v>
@@ -3711,12 +3287,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>61</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C77" s="2">
         <v>191</v>
@@ -3742,12 +3318,12 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>65</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C78" s="2">
         <v>159</v>
@@ -3773,15 +3349,15 @@
         <v>45050</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>85</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="D79" s="2">
         <v>17</v>
@@ -3804,15 +3380,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>86</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="D80" s="2">
         <v>31</v>
@@ -3835,15 +3411,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>84</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>42</v>
+        <v>100</v>
       </c>
       <c r="D81" s="2">
         <v>37</v>
@@ -3866,15 +3442,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>82</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="D82" s="2">
         <v>36</v>
@@ -3897,12 +3473,12 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>78</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C83" s="2">
         <v>111</v>
@@ -3928,12 +3504,12 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>77</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C84" s="2">
         <v>1</v>
@@ -3959,12 +3535,12 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>79</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C85" s="2">
         <v>15</v>
@@ -3990,12 +3566,12 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>80</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C86" s="2">
         <v>16</v>
@@ -4021,12 +3597,12 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>83</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C87" s="2">
         <v>22</v>
@@ -4052,12 +3628,12 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>81</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C88" s="2">
         <v>24</v>
@@ -4083,15 +3659,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>87</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>46</v>
+        <v>13</v>
+      </c>
+      <c r="C89" s="2">
+        <v>55</v>
       </c>
       <c r="D89" s="2">
         <v>10</v>
@@ -4114,15 +3690,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>95</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>54</v>
+        <v>13</v>
+      </c>
+      <c r="C90" s="2">
+        <v>322</v>
       </c>
       <c r="D90" s="2">
         <v>30</v>
@@ -4145,15 +3721,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>94</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>53</v>
+        <v>13</v>
+      </c>
+      <c r="C91" s="2">
+        <v>317</v>
       </c>
       <c r="D91" s="2">
         <v>30</v>
@@ -4176,15 +3752,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>93</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="C92" s="2">
+        <v>268</v>
       </c>
       <c r="D92" s="2">
         <v>27</v>
@@ -4207,15 +3783,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>90</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>49</v>
+        <v>13</v>
+      </c>
+      <c r="C93" s="2">
+        <v>305</v>
       </c>
       <c r="D93" s="2">
         <v>32</v>
@@ -4238,15 +3814,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>92</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>51</v>
+        <v>13</v>
+      </c>
+      <c r="C94" s="2">
+        <v>284</v>
       </c>
       <c r="D94" s="2">
         <v>35</v>
@@ -4269,15 +3845,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>89</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
+      </c>
+      <c r="C95" s="2">
+        <v>104</v>
       </c>
       <c r="D95" s="2">
         <v>32</v>
@@ -4300,15 +3876,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>88</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>47</v>
+        <v>13</v>
+      </c>
+      <c r="C96" s="2">
+        <v>301</v>
       </c>
       <c r="D96" s="2">
         <v>32</v>
@@ -4331,15 +3907,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>91</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>50</v>
+        <v>13</v>
+      </c>
+      <c r="C97" s="2">
+        <v>6</v>
       </c>
       <c r="D97" s="2">
         <v>51</v>
@@ -4362,15 +3938,15 @@
         <v>45051</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>108</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>67</v>
+        <v>13</v>
+      </c>
+      <c r="C98" s="2">
+        <v>349</v>
       </c>
       <c r="D98" s="2">
         <v>30</v>
@@ -4393,15 +3969,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>103</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>62</v>
+        <v>13</v>
+      </c>
+      <c r="C99" s="2">
+        <v>350</v>
       </c>
       <c r="D99" s="2">
         <v>16</v>
@@ -4424,15 +4000,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>106</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>65</v>
+        <v>13</v>
+      </c>
+      <c r="C100" s="2">
+        <v>353</v>
       </c>
       <c r="D100" s="2">
         <v>20</v>
@@ -4455,15 +4031,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>105</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>64</v>
+        <v>13</v>
+      </c>
+      <c r="C101" s="2">
+        <v>76</v>
       </c>
       <c r="D101" s="2">
         <v>26</v>
@@ -4486,15 +4062,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>107</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>66</v>
+        <v>13</v>
+      </c>
+      <c r="C102" s="2">
+        <v>352</v>
       </c>
       <c r="D102" s="2">
         <v>41</v>
@@ -4517,15 +4093,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>104</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>63</v>
+        <v>13</v>
+      </c>
+      <c r="C103" s="2">
+        <v>237</v>
       </c>
       <c r="D103" s="2">
         <v>32</v>
@@ -4548,15 +4124,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>102</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>61</v>
+        <v>13</v>
+      </c>
+      <c r="C104" s="2">
+        <v>269</v>
       </c>
       <c r="D104" s="2">
         <v>31</v>
@@ -4579,15 +4155,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>100</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>59</v>
+        <v>13</v>
+      </c>
+      <c r="C105" s="2">
+        <v>264</v>
       </c>
       <c r="D105" s="2">
         <v>29</v>
@@ -4610,15 +4186,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>101</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>60</v>
+        <v>13</v>
+      </c>
+      <c r="C106" s="2">
+        <v>351</v>
       </c>
       <c r="D106" s="2">
         <v>31</v>
@@ -4641,15 +4217,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>98</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>57</v>
+        <v>13</v>
+      </c>
+      <c r="C107" s="2">
+        <v>267</v>
       </c>
       <c r="D107" s="2">
         <v>31</v>
@@ -4672,15 +4248,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>97</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
+      </c>
+      <c r="C108" s="2">
+        <v>266</v>
       </c>
       <c r="D108" s="2">
         <v>32</v>
@@ -4703,15 +4279,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>99</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="C109" s="2">
+        <v>47</v>
       </c>
       <c r="D109" s="2">
         <v>35</v>
@@ -4734,15 +4310,15 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>96</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C110" s="2" t="s">
-        <v>55</v>
+        <v>13</v>
+      </c>
+      <c r="C110" s="2">
+        <v>277</v>
       </c>
       <c r="D110" s="2">
         <v>35</v>
@@ -4765,12 +4341,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>111</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C111" s="2">
         <v>78</v>
@@ -4796,12 +4372,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>110</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C112" s="2">
         <v>312</v>
@@ -4827,12 +4403,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C113" s="2">
         <v>297</v>
@@ -4858,12 +4434,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>109</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C114" s="2">
         <v>74</v>
@@ -4889,12 +4465,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C115" s="2">
         <v>197</v>
@@ -4920,12 +4496,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>113</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C116" s="2">
         <v>44</v>
@@ -4951,12 +4527,12 @@
         <v>45054</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>126</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C117" s="2">
         <v>109</v>
@@ -4982,12 +4558,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>127</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C118" s="2">
         <v>14</v>
@@ -5013,12 +4589,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>124</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C119" s="2">
         <v>295</v>
@@ -5044,12 +4620,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>116</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C120" s="2">
         <v>245</v>
@@ -5075,12 +4651,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>131</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C121" s="2">
         <v>236</v>
@@ -5106,12 +4682,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>132</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C122" s="2">
         <v>106</v>
@@ -5137,12 +4713,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>128</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C123" s="2">
         <v>81</v>
@@ -5168,12 +4744,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>122</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C124" s="2">
         <v>287</v>
@@ -5182,10 +4758,10 @@
         <v>29</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="G124" s="2">
         <f t="shared" si="2"/>
@@ -5199,12 +4775,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C125" s="2">
         <v>123</v>
@@ -5230,12 +4806,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C126" s="2">
         <v>62</v>
@@ -5261,12 +4837,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>130</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C127" s="2">
         <v>283</v>
@@ -5275,10 +4851,10 @@
         <v>38</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>71</v>
+        <v>17</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="G127" s="2">
         <f t="shared" si="2"/>
@@ -5292,12 +4868,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>121</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C128" s="2">
         <v>203</v>
@@ -5323,12 +4899,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>133</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C129" s="2">
         <v>193</v>
@@ -5354,12 +4930,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>120</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C130" s="2">
         <v>296</v>
@@ -5385,12 +4961,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>115</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C131" s="2">
         <v>228</v>
@@ -5416,12 +4992,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>129</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C132" s="2">
         <v>107</v>
@@ -5447,12 +5023,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>118</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C133" s="2">
         <v>116</v>
@@ -5478,12 +5054,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>123</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C134" s="2">
         <v>38</v>
@@ -5509,12 +5085,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>117</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C135" s="2">
         <v>238</v>
@@ -5540,12 +5116,12 @@
         <v>45055</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>137</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C136" s="2">
         <v>4</v>
@@ -5571,12 +5147,12 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>134</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C137" s="2">
         <v>251</v>
@@ -5602,12 +5178,12 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>135</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C138" s="2">
         <v>194</v>
@@ -5633,12 +5209,12 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C139" s="2">
         <v>229</v>
@@ -5664,12 +5240,12 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>136</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>68</v>
+        <v>14</v>
       </c>
       <c r="C140" s="2">
         <v>129</v>
@@ -5695,15 +5271,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>150</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>85</v>
+        <v>19</v>
+      </c>
+      <c r="C141" s="2">
+        <v>163</v>
       </c>
       <c r="D141" s="2">
         <v>16</v>
@@ -5726,15 +5302,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>145</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>80</v>
+        <v>19</v>
+      </c>
+      <c r="C142" s="2">
+        <v>188</v>
       </c>
       <c r="D142" s="2">
         <v>16</v>
@@ -5757,15 +5333,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>148</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>83</v>
+        <v>19</v>
+      </c>
+      <c r="C143" s="2">
+        <v>182</v>
       </c>
       <c r="D143" s="2">
         <v>19</v>
@@ -5788,15 +5364,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>141</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>76</v>
+        <v>19</v>
+      </c>
+      <c r="C144" s="2">
+        <v>270</v>
       </c>
       <c r="D144" s="2">
         <v>15</v>
@@ -5819,15 +5395,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>151</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>86</v>
+        <v>19</v>
+      </c>
+      <c r="C145" s="2">
+        <v>90</v>
       </c>
       <c r="D145" s="2">
         <v>30</v>
@@ -5850,15 +5426,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>143</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>78</v>
+        <v>19</v>
+      </c>
+      <c r="C146" s="2">
+        <v>79</v>
       </c>
       <c r="D146" s="2">
         <v>20</v>
@@ -5881,15 +5457,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>142</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>77</v>
+        <v>19</v>
+      </c>
+      <c r="C147" s="2">
+        <v>162</v>
       </c>
       <c r="D147" s="2">
         <v>21</v>
@@ -5912,15 +5488,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>140</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>75</v>
+        <v>19</v>
+      </c>
+      <c r="C148" s="2">
+        <v>164</v>
       </c>
       <c r="D148" s="2">
         <v>19</v>
@@ -5943,15 +5519,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>147</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>82</v>
+        <v>19</v>
+      </c>
+      <c r="C149" s="2">
+        <v>103</v>
       </c>
       <c r="D149" s="2">
         <v>26</v>
@@ -5974,15 +5550,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>152</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>87</v>
+        <v>19</v>
+      </c>
+      <c r="C150" s="2">
+        <v>168</v>
       </c>
       <c r="D150" s="2">
         <v>42</v>
@@ -6005,15 +5581,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>149</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>84</v>
+        <v>19</v>
+      </c>
+      <c r="C151" s="2">
+        <v>126</v>
       </c>
       <c r="D151" s="2">
         <v>30</v>
@@ -6036,15 +5612,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>146</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>81</v>
+        <v>19</v>
+      </c>
+      <c r="C152" s="2">
+        <v>280</v>
       </c>
       <c r="D152" s="2">
         <v>32</v>
@@ -6067,15 +5643,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>139</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>74</v>
+        <v>19</v>
+      </c>
+      <c r="C153" s="2">
+        <v>217</v>
       </c>
       <c r="D153" s="2">
         <v>27</v>
@@ -6098,15 +5674,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>144</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>79</v>
+        <v>19</v>
+      </c>
+      <c r="C154" s="2">
+        <v>195</v>
       </c>
       <c r="D154" s="2">
         <v>38</v>
@@ -6129,15 +5705,15 @@
         <v>45056</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>167</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>102</v>
+        <v>19</v>
+      </c>
+      <c r="C155" s="2">
+        <v>66</v>
       </c>
       <c r="D155" s="2">
         <v>10</v>
@@ -6160,15 +5736,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>164</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>73</v>
+        <v>19</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="D156" s="2">
         <v>10</v>
@@ -6191,15 +5767,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>158</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>93</v>
+        <v>19</v>
+      </c>
+      <c r="C157" s="2">
+        <v>128</v>
       </c>
       <c r="D157" s="2">
         <v>16</v>
@@ -6222,15 +5798,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>162</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>97</v>
+        <v>19</v>
+      </c>
+      <c r="C158" s="2">
+        <v>183</v>
       </c>
       <c r="D158" s="2">
         <v>28</v>
@@ -6253,15 +5829,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>165</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>100</v>
+        <v>19</v>
+      </c>
+      <c r="C159" s="2">
+        <v>232</v>
       </c>
       <c r="D159" s="2">
         <v>35</v>
@@ -6284,15 +5860,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>161</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>96</v>
+        <v>19</v>
+      </c>
+      <c r="C160" s="2">
+        <v>181</v>
       </c>
       <c r="D160" s="2">
         <v>31</v>
@@ -6315,15 +5891,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>157</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>92</v>
+        <v>19</v>
+      </c>
+      <c r="C161" s="2">
+        <v>201</v>
       </c>
       <c r="D161" s="2">
         <v>31</v>
@@ -6346,15 +5922,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>160</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>95</v>
+        <v>19</v>
+      </c>
+      <c r="C162" s="2">
+        <v>179</v>
       </c>
       <c r="D162" s="2">
         <v>32</v>
@@ -6377,15 +5953,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>156</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>91</v>
+        <v>19</v>
+      </c>
+      <c r="C163" s="2">
+        <v>281</v>
       </c>
       <c r="D163" s="2">
         <v>30</v>
@@ -6408,15 +5984,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>154</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>89</v>
+        <v>19</v>
+      </c>
+      <c r="C164" s="2">
+        <v>173</v>
       </c>
       <c r="D164" s="2">
         <v>25</v>
@@ -6439,15 +6015,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>155</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>90</v>
+        <v>19</v>
+      </c>
+      <c r="C165" s="2">
+        <v>202</v>
       </c>
       <c r="D165" s="2">
         <v>32</v>
@@ -6470,15 +6046,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>166</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>101</v>
+        <v>19</v>
+      </c>
+      <c r="C166" s="2">
+        <v>138</v>
       </c>
       <c r="D166" s="2">
         <v>55</v>
@@ -6501,15 +6077,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>163</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>98</v>
+        <v>19</v>
+      </c>
+      <c r="C167" s="2">
+        <v>131</v>
       </c>
       <c r="D167" s="2">
         <v>48</v>
@@ -6532,15 +6108,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>159</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>94</v>
+        <v>19</v>
+      </c>
+      <c r="C168" s="2">
+        <v>114</v>
       </c>
       <c r="D168" s="2">
         <v>48</v>
@@ -6563,15 +6139,15 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>153</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>88</v>
+        <v>19</v>
+      </c>
+      <c r="C169" s="2">
+        <v>200</v>
       </c>
       <c r="D169" s="2">
         <v>35</v>
@@ -6594,12 +6170,12 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>168</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C170" s="2">
         <v>180</v>
@@ -6625,12 +6201,12 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>169</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C171" s="2">
         <v>186</v>
@@ -6656,12 +6232,12 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>171</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C172" s="2">
         <v>324</v>
@@ -6687,12 +6263,12 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>170</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C173" s="2">
         <v>41</v>
@@ -6718,12 +6294,12 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>188</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C174" s="2">
         <v>45</v>
@@ -6749,12 +6325,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>178</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C175" s="2">
         <v>115</v>
@@ -6780,12 +6356,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>186</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C176" s="2">
         <v>82</v>
@@ -6811,12 +6387,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>181</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C177" s="2">
         <v>13</v>
@@ -6842,12 +6418,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>184</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C178" s="2">
         <v>84</v>
@@ -6873,12 +6449,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>190</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C179" s="2">
         <v>299</v>
@@ -6904,12 +6480,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>189</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C180" s="2">
         <v>316</v>
@@ -6935,12 +6511,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>177</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C181" s="2">
         <v>262</v>
@@ -6966,12 +6542,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>180</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C182" s="2">
         <v>20</v>
@@ -6997,12 +6573,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>175</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C183" s="2">
         <v>10</v>
@@ -7028,12 +6604,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>185</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C184" s="2">
         <v>314</v>
@@ -7059,12 +6635,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="185" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>173</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C185" s="2">
         <v>40</v>
@@ -7090,12 +6666,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>187</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C186" s="2">
         <v>320</v>
@@ -7121,12 +6697,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="187" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>183</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C187" s="2">
         <v>254</v>
@@ -7152,12 +6728,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>179</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C188" s="2">
         <v>192</v>
@@ -7183,12 +6759,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>182</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C189" s="2">
         <v>19</v>
@@ -7214,12 +6790,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>172</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C190" s="2">
         <v>59</v>
@@ -7245,12 +6821,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>176</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C191" s="2">
         <v>102</v>
@@ -7276,12 +6852,12 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>174</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C192" s="2">
         <v>169</v>
@@ -7307,15 +6883,15 @@
         <v>45058</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>197</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D193" s="2">
         <v>10</v>
@@ -7343,7 +6919,7 @@
         <v>199</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C194" s="2">
         <v>113</v>
@@ -7369,12 +6945,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>196</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C195" s="2">
         <v>141</v>
@@ -7400,12 +6976,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>200</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C196" s="2">
         <v>136</v>
@@ -7431,12 +7007,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>195</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C197" s="2">
         <v>92</v>
@@ -7462,12 +7038,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>192</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C198" s="2">
         <v>167</v>
@@ -7493,12 +7069,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>194</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C199" s="2">
         <v>85</v>
@@ -7524,12 +7100,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>198</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C200" s="2">
         <v>39</v>
@@ -7555,12 +7131,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>191</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C201" s="2">
         <v>157</v>
@@ -7586,12 +7162,12 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>193</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>103</v>
+        <v>20</v>
       </c>
       <c r="C202" s="2">
         <v>276</v>
@@ -7617,15 +7193,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>209</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C203" s="2" t="s">
-        <v>114</v>
+        <v>21</v>
+      </c>
+      <c r="C203" s="2">
+        <v>327</v>
       </c>
       <c r="D203" s="2">
         <v>15</v>
@@ -7648,15 +7224,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>208</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C204" s="2" t="s">
-        <v>113</v>
+        <v>21</v>
+      </c>
+      <c r="C204" s="2">
+        <v>259</v>
       </c>
       <c r="D204" s="2">
         <v>15</v>
@@ -7679,15 +7255,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>205</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C205" s="2" t="s">
-        <v>110</v>
+        <v>21</v>
+      </c>
+      <c r="C205" s="2">
+        <v>273</v>
       </c>
       <c r="D205" s="2">
         <v>15</v>
@@ -7710,15 +7286,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>204</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C206" s="2" t="s">
-        <v>109</v>
+        <v>21</v>
+      </c>
+      <c r="C206" s="2">
+        <v>122</v>
       </c>
       <c r="D206" s="2">
         <v>16</v>
@@ -7741,15 +7317,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>206</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C207" s="2" t="s">
-        <v>111</v>
+        <v>21</v>
+      </c>
+      <c r="C207" s="2">
+        <v>250</v>
       </c>
       <c r="D207" s="2">
         <v>17</v>
@@ -7772,15 +7348,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>203</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C208" s="2" t="s">
-        <v>108</v>
+        <v>21</v>
+      </c>
+      <c r="C208" s="2">
+        <v>51</v>
       </c>
       <c r="D208" s="2">
         <v>19</v>
@@ -7803,15 +7379,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>201</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C209" s="2" t="s">
-        <v>106</v>
+        <v>21</v>
+      </c>
+      <c r="C209" s="2">
+        <v>220</v>
       </c>
       <c r="D209" s="2">
         <v>19</v>
@@ -7834,15 +7410,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>207</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C210" s="2" t="s">
-        <v>112</v>
+        <v>21</v>
+      </c>
+      <c r="C210" s="2">
+        <v>235</v>
       </c>
       <c r="D210" s="2">
         <v>31</v>
@@ -7865,15 +7441,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>202</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C211" s="2" t="s">
-        <v>107</v>
+        <v>21</v>
+      </c>
+      <c r="C211" s="2">
+        <v>97</v>
       </c>
       <c r="D211" s="2">
         <v>34</v>
@@ -7896,15 +7472,15 @@
         <v>45061</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>227</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C212" s="2" t="s">
-        <v>132</v>
+        <v>21</v>
+      </c>
+      <c r="C212" s="2">
+        <v>80</v>
       </c>
       <c r="D212" s="2">
         <v>16</v>
@@ -7927,15 +7503,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>222</v>
       </c>
       <c r="B213" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C213" s="2">
         <v>105</v>
-      </c>
-      <c r="C213" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D213" s="2">
         <v>15</v>
@@ -7958,15 +7534,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>220</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C214" s="2" t="s">
-        <v>125</v>
+        <v>21</v>
+      </c>
+      <c r="C214" s="2">
+        <v>96</v>
       </c>
       <c r="D214" s="2">
         <v>15</v>
@@ -7989,15 +7565,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>218</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C215" s="2" t="s">
-        <v>123</v>
+        <v>21</v>
+      </c>
+      <c r="C215" s="2">
+        <v>21</v>
       </c>
       <c r="D215" s="2">
         <v>15</v>
@@ -8020,15 +7596,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>214</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C216" s="2" t="s">
-        <v>119</v>
+        <v>21</v>
+      </c>
+      <c r="C216" s="2">
+        <v>58</v>
       </c>
       <c r="D216" s="2">
         <v>13</v>
@@ -8051,15 +7627,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>228</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C217" s="2" t="s">
-        <v>133</v>
+        <v>21</v>
+      </c>
+      <c r="C217" s="2">
+        <v>12</v>
       </c>
       <c r="D217" s="2">
         <v>30</v>
@@ -8082,15 +7658,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>225</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C218" s="2" t="s">
-        <v>130</v>
+        <v>21</v>
+      </c>
+      <c r="C218" s="2">
+        <v>150</v>
       </c>
       <c r="D218" s="2">
         <v>26</v>
@@ -8113,15 +7689,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>217</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C219" s="2" t="s">
-        <v>122</v>
+        <v>21</v>
+      </c>
+      <c r="C219" s="2">
+        <v>70</v>
       </c>
       <c r="D219" s="2">
         <v>19</v>
@@ -8144,15 +7720,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>224</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C220" s="2" t="s">
-        <v>129</v>
+        <v>21</v>
+      </c>
+      <c r="C220" s="2">
+        <v>63</v>
       </c>
       <c r="D220" s="2">
         <v>30</v>
@@ -8175,15 +7751,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>221</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C221" s="2" t="s">
-        <v>126</v>
+        <v>21</v>
+      </c>
+      <c r="C221" s="2">
+        <v>271</v>
       </c>
       <c r="D221" s="2">
         <v>26</v>
@@ -8206,15 +7782,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>223</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C222" s="2" t="s">
-        <v>128</v>
+        <v>21</v>
+      </c>
+      <c r="C222" s="2">
+        <v>247</v>
       </c>
       <c r="D222" s="2">
         <v>36</v>
@@ -8237,15 +7813,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>215</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>120</v>
+        <v>21</v>
+      </c>
+      <c r="C223" s="2">
+        <v>98</v>
       </c>
       <c r="D223" s="2">
         <v>29</v>
@@ -8268,15 +7844,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>213</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>118</v>
+        <v>21</v>
+      </c>
+      <c r="C224" s="2">
+        <v>265</v>
       </c>
       <c r="D224" s="2">
         <v>30</v>
@@ -8299,15 +7875,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>212</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C225" s="2" t="s">
-        <v>117</v>
+        <v>21</v>
+      </c>
+      <c r="C225" s="2">
+        <v>274</v>
       </c>
       <c r="D225" s="2">
         <v>31</v>
@@ -8330,15 +7906,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>216</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C226" s="2" t="s">
-        <v>121</v>
+        <v>21</v>
+      </c>
+      <c r="C226" s="2">
+        <v>288</v>
       </c>
       <c r="D226" s="2">
         <v>34</v>
@@ -8361,15 +7937,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>211</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>116</v>
+        <v>21</v>
+      </c>
+      <c r="C227" s="2">
+        <v>258</v>
       </c>
       <c r="D227" s="2">
         <v>31</v>
@@ -8392,15 +7968,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>210</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>115</v>
+        <v>21</v>
+      </c>
+      <c r="C228" s="2">
+        <v>313</v>
       </c>
       <c r="D228" s="2">
         <v>30</v>
@@ -8423,15 +7999,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>219</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C229" s="2" t="s">
-        <v>124</v>
+        <v>21</v>
+      </c>
+      <c r="C229" s="2">
+        <v>17</v>
       </c>
       <c r="D229" s="2">
         <v>50</v>
@@ -8454,15 +8030,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>226</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>131</v>
+        <v>21</v>
+      </c>
+      <c r="C230" s="2">
+        <v>5</v>
       </c>
       <c r="D230" s="2">
         <v>80</v>
@@ -8485,15 +8061,15 @@
         <v>45062</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>233</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C231" s="2" t="s">
-        <v>138</v>
+        <v>21</v>
+      </c>
+      <c r="C231" s="2">
+        <v>88</v>
       </c>
       <c r="D231" s="2">
         <v>25</v>
@@ -8516,15 +8092,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>229</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>134</v>
+        <v>21</v>
+      </c>
+      <c r="C232" s="2">
+        <v>53</v>
       </c>
       <c r="D232" s="2">
         <v>15</v>
@@ -8547,15 +8123,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>232</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C233" s="2" t="s">
-        <v>137</v>
+        <v>21</v>
+      </c>
+      <c r="C233" s="2">
+        <v>72</v>
       </c>
       <c r="D233" s="2">
         <v>30</v>
@@ -8578,15 +8154,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>230</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>135</v>
+        <v>21</v>
+      </c>
+      <c r="C234" s="2">
+        <v>117</v>
       </c>
       <c r="D234" s="2">
         <v>29</v>
@@ -8609,15 +8185,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>231</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>136</v>
+        <v>21</v>
+      </c>
+      <c r="C235" s="2">
+        <v>9</v>
       </c>
       <c r="D235" s="2">
         <v>67</v>
@@ -8640,15 +8216,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>247</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C236" s="2" t="s">
-        <v>153</v>
+        <v>22</v>
+      </c>
+      <c r="C236" s="2">
+        <v>25</v>
       </c>
       <c r="D236" s="2">
         <v>13</v>
@@ -8671,15 +8247,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>245</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C237" s="2" t="s">
-        <v>151</v>
+        <v>22</v>
+      </c>
+      <c r="C237" s="2">
+        <v>73</v>
       </c>
       <c r="D237" s="2">
         <v>16</v>
@@ -8702,15 +8278,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>241</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C238" s="2" t="s">
-        <v>147</v>
+        <v>22</v>
+      </c>
+      <c r="C238" s="2">
+        <v>100</v>
       </c>
       <c r="D238" s="2">
         <v>16</v>
@@ -8733,15 +8309,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>246</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C239" s="2" t="s">
-        <v>152</v>
+        <v>22</v>
+      </c>
+      <c r="C239" s="2">
+        <v>319</v>
       </c>
       <c r="D239" s="2">
         <v>51</v>
@@ -8764,15 +8340,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>244</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C240" s="2" t="s">
-        <v>150</v>
+        <v>22</v>
+      </c>
+      <c r="C240" s="2">
+        <v>135</v>
       </c>
       <c r="D240" s="2">
         <v>31</v>
@@ -8795,15 +8371,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>243</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C241" s="2" t="s">
-        <v>149</v>
+        <v>22</v>
+      </c>
+      <c r="C241" s="2">
+        <v>48</v>
       </c>
       <c r="D241" s="2">
         <v>31</v>
@@ -8826,15 +8402,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>236</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C242" s="2" t="s">
-        <v>142</v>
+        <v>22</v>
+      </c>
+      <c r="C242" s="2">
+        <v>118</v>
       </c>
       <c r="D242" s="2">
         <v>16</v>
@@ -8857,15 +8433,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>235</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C243" s="2" t="s">
-        <v>141</v>
+        <v>22</v>
+      </c>
+      <c r="C243" s="2">
+        <v>172</v>
       </c>
       <c r="D243" s="2">
         <v>16</v>
@@ -8888,15 +8464,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>240</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>146</v>
+        <v>22</v>
+      </c>
+      <c r="C244" s="2">
+        <v>26</v>
       </c>
       <c r="D244" s="2">
         <v>25</v>
@@ -8919,15 +8495,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>234</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C245" s="2" t="s">
-        <v>140</v>
+        <v>22</v>
+      </c>
+      <c r="C245" s="2">
+        <v>91</v>
       </c>
       <c r="D245" s="2">
         <v>19</v>
@@ -8950,15 +8526,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>242</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C246" s="2" t="s">
-        <v>148</v>
+        <v>22</v>
+      </c>
+      <c r="C246" s="2">
+        <v>89</v>
       </c>
       <c r="D246" s="2">
         <v>41</v>
@@ -8981,15 +8557,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>239</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C247" s="2" t="s">
-        <v>145</v>
+        <v>22</v>
+      </c>
+      <c r="C247" s="2">
+        <v>144</v>
       </c>
       <c r="D247" s="2">
         <v>32</v>
@@ -9012,15 +8588,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>238</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C248" s="2" t="s">
-        <v>144</v>
+        <v>22</v>
+      </c>
+      <c r="C248" s="2">
+        <v>127</v>
       </c>
       <c r="D248" s="2">
         <v>32</v>
@@ -9043,15 +8619,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>237</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C249" s="2" t="s">
-        <v>143</v>
+        <v>22</v>
+      </c>
+      <c r="C249" s="2">
+        <v>160</v>
       </c>
       <c r="D249" s="2">
         <v>32</v>
@@ -9074,15 +8650,15 @@
         <v>45063</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>248</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="C250" s="2" t="s">
-        <v>154</v>
+        <v>22</v>
+      </c>
+      <c r="C250" s="2">
+        <v>321</v>
       </c>
       <c r="D250" s="2">
         <v>13</v>
@@ -9105,15 +8681,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="251" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>263</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C251" s="2" t="s">
-        <v>170</v>
+        <v>23</v>
+      </c>
+      <c r="C251" s="2">
+        <v>334</v>
       </c>
       <c r="D251" s="2">
         <v>22</v>
@@ -9136,15 +8712,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="252" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>259</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C252" s="2" t="s">
-        <v>166</v>
+        <v>23</v>
+      </c>
+      <c r="C252" s="2">
+        <v>333</v>
       </c>
       <c r="D252" s="2">
         <v>19</v>
@@ -9167,15 +8743,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="253" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>257</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C253" s="2" t="s">
-        <v>164</v>
+        <v>23</v>
+      </c>
+      <c r="C253" s="2">
+        <v>335</v>
       </c>
       <c r="D253" s="2">
         <v>25</v>
@@ -9198,15 +8774,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="254" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>260</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C254" s="2" t="s">
-        <v>167</v>
+        <v>23</v>
+      </c>
+      <c r="C254" s="2">
+        <v>332</v>
       </c>
       <c r="D254" s="2">
         <v>48</v>
@@ -9229,15 +8805,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="255" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>258</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C255" s="2" t="s">
-        <v>165</v>
+        <v>23</v>
+      </c>
+      <c r="C255" s="2">
+        <v>304</v>
       </c>
       <c r="D255" s="2">
         <v>32</v>
@@ -9260,15 +8836,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="256" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>254</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C256" s="2" t="s">
-        <v>161</v>
+        <v>23</v>
+      </c>
+      <c r="C256" s="2">
+        <v>336</v>
       </c>
       <c r="D256" s="2">
         <v>23</v>
@@ -9291,15 +8867,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="257" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>255</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C257" s="2" t="s">
-        <v>162</v>
+        <v>23</v>
+      </c>
+      <c r="C257" s="2">
+        <v>2</v>
       </c>
       <c r="D257" s="2">
         <v>30</v>
@@ -9322,15 +8898,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="258" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>253</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C258" s="2" t="s">
-        <v>160</v>
+        <v>23</v>
+      </c>
+      <c r="C258" s="2">
+        <v>292</v>
       </c>
       <c r="D258" s="2">
         <v>26</v>
@@ -9353,15 +8929,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="259" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>256</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C259" s="2" t="s">
-        <v>163</v>
+        <v>23</v>
+      </c>
+      <c r="C259" s="2">
+        <v>303</v>
       </c>
       <c r="D259" s="2">
         <v>36</v>
@@ -9384,15 +8960,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="260" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>264</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C260" s="2" t="s">
-        <v>171</v>
+        <v>23</v>
+      </c>
+      <c r="C260" s="2">
+        <v>330</v>
       </c>
       <c r="D260" s="2">
         <v>159</v>
@@ -9415,15 +8991,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="261" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>251</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C261" s="2" t="s">
-        <v>158</v>
+        <v>23</v>
+      </c>
+      <c r="C261" s="2">
+        <v>32</v>
       </c>
       <c r="D261" s="2">
         <v>25</v>
@@ -9446,15 +9022,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="262" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>262</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C262" s="2" t="s">
-        <v>169</v>
+        <v>23</v>
+      </c>
+      <c r="C262" s="2">
+        <v>329</v>
       </c>
       <c r="D262" s="2">
         <v>159</v>
@@ -9477,15 +9053,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="263" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>261</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C263" s="2" t="s">
-        <v>168</v>
+        <v>23</v>
+      </c>
+      <c r="C263" s="2">
+        <v>331</v>
       </c>
       <c r="D263" s="2">
         <v>159</v>
@@ -9508,15 +9084,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="264" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>250</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C264" s="2" t="s">
-        <v>157</v>
+        <v>23</v>
+      </c>
+      <c r="C264" s="2">
+        <v>3</v>
       </c>
       <c r="D264" s="2">
         <v>32</v>
@@ -9539,15 +9115,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="265" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>252</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C265" s="2" t="s">
-        <v>159</v>
+        <v>23</v>
+      </c>
+      <c r="C265" s="2">
+        <v>285</v>
       </c>
       <c r="D265" s="2">
         <v>55</v>
@@ -9570,15 +9146,15 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="266" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>249</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="C266" s="2" t="s">
-        <v>156</v>
+        <v>23</v>
+      </c>
+      <c r="C266" s="2">
+        <v>8</v>
       </c>
       <c r="D266" s="2">
         <v>35</v>
@@ -9601,12 +9177,12 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="267" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>266</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C267" s="2">
         <v>216</v>
@@ -9632,12 +9208,12 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="268" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>265</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C268" s="2">
         <v>153</v>
@@ -9663,12 +9239,12 @@
         <v>45064</v>
       </c>
     </row>
-    <row r="269" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>282</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C269" s="2">
         <v>23</v>
@@ -9694,12 +9270,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="270" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>279</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C270" s="2">
         <v>231</v>
@@ -9725,12 +9301,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="271" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>277</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C271" s="2">
         <v>156</v>
@@ -9756,12 +9332,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="272" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>285</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C272" s="2">
         <v>170</v>
@@ -9787,12 +9363,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="273" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>276</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C273" s="2">
         <v>339</v>
@@ -9818,12 +9394,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="274" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>284</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C274" s="2">
         <v>30</v>
@@ -9849,12 +9425,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="275" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>272</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C275" s="2">
         <v>155</v>
@@ -9880,12 +9456,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="276" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>271</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C276" s="2">
         <v>227</v>
@@ -9911,12 +9487,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="277" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>274</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C277" s="2">
         <v>149</v>
@@ -9942,12 +9518,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="278" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>283</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C278" s="2">
         <v>226</v>
@@ -9973,12 +9549,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="279" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>268</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C279" s="2">
         <v>69</v>
@@ -10004,12 +9580,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="280" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>269</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C280" s="2">
         <v>161</v>
@@ -10035,12 +9611,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="281" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>270</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C281" s="2">
         <v>206</v>
@@ -10066,12 +9642,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="282" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>280</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C282" s="2">
         <v>151</v>
@@ -10097,12 +9673,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="283" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>278</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C283" s="2">
         <v>61</v>
@@ -10128,12 +9704,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="284" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>267</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C284" s="2">
         <v>152</v>
@@ -10159,12 +9735,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="285" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>275</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C285" s="2">
         <v>282</v>
@@ -10190,12 +9766,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="286" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>273</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C286" s="2">
         <v>166</v>
@@ -10221,12 +9797,12 @@
         <v>45065</v>
       </c>
     </row>
-    <row r="287" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>290</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C287" s="2">
         <v>340</v>
@@ -10252,12 +9828,12 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="288" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>289</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C288" s="2">
         <v>342</v>
@@ -10283,12 +9859,12 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="289" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>288</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C289" s="2">
         <v>341</v>
@@ -10314,12 +9890,12 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="290" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>287</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C290" s="2">
         <v>67</v>
@@ -10345,12 +9921,12 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="291" spans="1:9" hidden="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>286</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>172</v>
+        <v>24</v>
       </c>
       <c r="C291" s="2">
         <v>255</v>
@@ -10376,22 +9952,67 @@
         <v>45068</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="C297" s="2" t="s">
-        <v>173</v>
-      </c>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="B292" s="1"/>
+      <c r="C292" s="1"/>
+      <c r="D292" s="1"/>
+      <c r="E292" s="1"/>
+      <c r="F292" s="1"/>
+      <c r="G292" s="1"/>
+      <c r="K292" s="1"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="B293" s="1"/>
+      <c r="C293" s="1"/>
+      <c r="D293" s="1"/>
+      <c r="E293" s="1"/>
+      <c r="F293" s="1"/>
+      <c r="G293" s="1"/>
+      <c r="K293" s="1"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="B294" s="1"/>
+      <c r="C294" s="1"/>
+      <c r="D294" s="1"/>
+      <c r="E294" s="1"/>
+      <c r="F294" s="1"/>
+      <c r="G294" s="1"/>
+      <c r="K294" s="1"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="B295" s="1"/>
+      <c r="C295" s="1"/>
+      <c r="D295" s="1"/>
+      <c r="E295" s="1"/>
+      <c r="F295" s="1"/>
+      <c r="G295" s="1"/>
+      <c r="K295" s="1"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="B296" s="1"/>
+      <c r="C296" s="1"/>
+      <c r="D296" s="1"/>
+      <c r="E296" s="1"/>
+      <c r="F296" s="1"/>
+      <c r="G296" s="1"/>
+      <c r="K296" s="1"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="B297" s="1"/>
+      <c r="C297" s="1"/>
+      <c r="D297" s="1"/>
+      <c r="E297" s="1"/>
+      <c r="F297" s="1"/>
+      <c r="G297" s="1"/>
+      <c r="K297" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:J291" xr:uid="{5EAA2FF0-D35B-4499-A5E6-0068AC1ADD1B}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="113"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J291">
-      <sortCondition ref="J1:J291"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="56" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -10420,18 +10041,18 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>192</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>193</v>
+        <v>44</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2" t="s">
-        <v>194</v>
+        <v>45</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>195</v>
+        <v>46</v>
       </c>
       <c r="H1" s="2"/>
       <c r="I1" s="2"/>
@@ -10442,26 +10063,26 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>196</v>
+        <v>47</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" s="11" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="H2" s="2"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="N2" s="11" t="s">
-        <v>198</v>
+        <v>49</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -10472,26 +10093,26 @@
         <v>23</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>200</v>
+        <v>51</v>
       </c>
       <c r="C3" s="6">
         <v>1</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="11" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="G3" s="12" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
       <c r="N3" s="11" t="s">
-        <v>201</v>
+        <v>52</v>
       </c>
       <c r="O3" s="1">
         <v>2</v>
@@ -10502,26 +10123,26 @@
         <v>2</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>202</v>
+        <v>53</v>
       </c>
       <c r="C4" s="6">
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="11" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
       <c r="J4" s="2"/>
       <c r="N4" s="11" t="s">
-        <v>203</v>
+        <v>54</v>
       </c>
       <c r="O4" s="1">
         <v>3</v>
@@ -10532,26 +10153,26 @@
         <v>15</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>204</v>
+        <v>55</v>
       </c>
       <c r="C5" s="6">
         <v>2</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="11" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="G5" s="12" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
       <c r="N5" s="11" t="s">
-        <v>205</v>
+        <v>56</v>
       </c>
       <c r="O5" s="1">
         <v>4</v>
@@ -10562,26 +10183,26 @@
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>206</v>
+        <v>57</v>
       </c>
       <c r="C6" s="6">
         <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="11" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="G6" s="12" t="s">
-        <v>199</v>
+        <v>50</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
       <c r="N6" s="11" t="s">
-        <v>207</v>
+        <v>58</v>
       </c>
       <c r="O6" s="1">
         <v>5</v>
@@ -10592,26 +10213,26 @@
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>208</v>
+        <v>59</v>
       </c>
       <c r="C7" s="6">
         <v>3</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="11" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="N7" s="11" t="s">
-        <v>209</v>
+        <v>60</v>
       </c>
       <c r="O7" s="1">
         <v>8</v>
@@ -10622,26 +10243,26 @@
         <v>4</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>211</v>
+        <v>62</v>
       </c>
       <c r="C8" s="6">
         <v>4</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="11" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
       <c r="N8" s="11" t="s">
-        <v>212</v>
+        <v>63</v>
       </c>
       <c r="O8" s="1">
         <v>9</v>
@@ -10652,26 +10273,26 @@
         <v>5</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>213</v>
+        <v>64</v>
       </c>
       <c r="C9" s="6">
         <v>4</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="11" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
       <c r="N9" s="11" t="s">
-        <v>214</v>
+        <v>65</v>
       </c>
       <c r="O9" s="1">
         <v>10</v>
@@ -10682,26 +10303,26 @@
         <v>6</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>215</v>
+        <v>66</v>
       </c>
       <c r="C10" s="6">
         <v>5</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="11" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
       <c r="N10" s="11" t="s">
-        <v>216</v>
+        <v>67</v>
       </c>
       <c r="O10" s="1">
         <v>11</v>
@@ -10712,20 +10333,20 @@
         <v>17</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>217</v>
+        <v>68</v>
       </c>
       <c r="C11" s="6">
         <v>5</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="11" t="s">
-        <v>218</v>
+        <v>69</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>210</v>
+        <v>61</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -10736,20 +10357,20 @@
         <v>7</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>219</v>
+        <v>70</v>
       </c>
       <c r="C12" s="6">
         <v>6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="11" t="s">
-        <v>220</v>
+        <v>71</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -10760,20 +10381,20 @@
         <v>29</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>222</v>
+        <v>73</v>
       </c>
       <c r="C13" s="6">
         <v>6</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="11" t="s">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -10784,20 +10405,20 @@
         <v>8</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>224</v>
+        <v>75</v>
       </c>
       <c r="C14" s="2">
         <v>7</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="11" t="s">
-        <v>225</v>
+        <v>76</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -10808,20 +10429,20 @@
         <v>21</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>226</v>
+        <v>77</v>
       </c>
       <c r="C15" s="2">
         <v>7</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="11" t="s">
-        <v>227</v>
+        <v>78</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
@@ -10832,20 +10453,20 @@
         <v>9</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6">
         <v>8</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="11" t="s">
-        <v>229</v>
+        <v>80</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>221</v>
+        <v>72</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -10856,19 +10477,19 @@
         <v>30</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>230</v>
+        <v>81</v>
       </c>
       <c r="C17" s="6">
         <v>8</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>231</v>
+        <v>82</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>232</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10876,13 +10497,13 @@
         <v>10</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>233</v>
+        <v>84</v>
       </c>
       <c r="C18" s="6">
         <v>9</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10890,13 +10511,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="C19" s="6">
         <v>9</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10904,13 +10525,13 @@
         <v>11</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>235</v>
+        <v>86</v>
       </c>
       <c r="C20" s="2">
         <v>10</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10918,13 +10539,13 @@
         <v>25</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>236</v>
+        <v>87</v>
       </c>
       <c r="C21" s="2">
         <v>10</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10932,13 +10553,13 @@
         <v>12</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>237</v>
+        <v>88</v>
       </c>
       <c r="C22" s="6">
         <v>11</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -10946,13 +10567,13 @@
         <v>24</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>238</v>
+        <v>89</v>
       </c>
       <c r="C23" s="6">
         <v>11</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -10960,13 +10581,13 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>239</v>
+        <v>90</v>
       </c>
       <c r="C24" s="6">
         <v>12</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -10974,13 +10595,13 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>240</v>
+        <v>91</v>
       </c>
       <c r="C25" s="6">
         <v>12</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -10988,13 +10609,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>241</v>
+        <v>92</v>
       </c>
       <c r="C26" s="6">
         <v>13</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -11002,13 +10623,13 @@
         <v>18</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>242</v>
+        <v>93</v>
       </c>
       <c r="C27" s="6">
         <v>13</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -11016,13 +10637,13 @@
         <v>13</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>243</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2">
         <v>14</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -11030,13 +10651,13 @@
         <v>22</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>244</v>
+        <v>95</v>
       </c>
       <c r="C29" s="2">
         <v>14</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>197</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -11044,7 +10665,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>245</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2">
         <v>6</v>
@@ -11055,7 +10676,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>246</v>
+        <v>97</v>
       </c>
       <c r="C31" s="2">
         <v>6</v>
